--- a/natmiOut/OldD7/LR-pairs_lrc2p/Icam1-Itgam.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Icam1-Itgam.xlsx
@@ -531,52 +531,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.3537793433598</v>
+        <v>14.452709</v>
       </c>
       <c r="H2">
-        <v>13.3537793433598</v>
+        <v>43.358127</v>
       </c>
       <c r="I2">
-        <v>0.1435985692605894</v>
+        <v>0.1476906377370901</v>
       </c>
       <c r="J2">
-        <v>0.1435985692605894</v>
+        <v>0.1476906377370901</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>37.8591510565883</v>
+        <v>45.931316</v>
       </c>
       <c r="N2">
-        <v>37.8591510565883</v>
+        <v>137.793948</v>
       </c>
       <c r="O2">
-        <v>0.9970878470797707</v>
+        <v>0.9874217014725413</v>
       </c>
       <c r="P2">
-        <v>0.9970878470797707</v>
+        <v>0.9874217014725412</v>
       </c>
       <c r="Q2">
-        <v>505.5627493366072</v>
+        <v>663.831944135044</v>
       </c>
       <c r="R2">
-        <v>505.5627493366072</v>
+        <v>5974.487497215396</v>
       </c>
       <c r="S2">
-        <v>0.1431803882677765</v>
+        <v>0.1458329408059222</v>
       </c>
       <c r="T2">
-        <v>0.1431803882677765</v>
+        <v>0.1458329408059222</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.3537793433598</v>
+        <v>14.452709</v>
       </c>
       <c r="H3">
-        <v>13.3537793433598</v>
+        <v>43.358127</v>
       </c>
       <c r="I3">
-        <v>0.1435985692605894</v>
+        <v>0.1476906377370901</v>
       </c>
       <c r="J3">
-        <v>0.1435985692605894</v>
+        <v>0.1476906377370901</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.110573644669067</v>
+        <v>0.5850973333333334</v>
       </c>
       <c r="N3">
-        <v>0.110573644669067</v>
+        <v>1.755292</v>
       </c>
       <c r="O3">
-        <v>0.002912152920229241</v>
+        <v>0.01257829852745884</v>
       </c>
       <c r="P3">
-        <v>0.002912152920229241</v>
+        <v>0.01257829852745884</v>
       </c>
       <c r="Q3">
-        <v>1.476576052101793</v>
+        <v>8.456241495342667</v>
       </c>
       <c r="R3">
-        <v>1.476576052101793</v>
+        <v>76.106173458084</v>
       </c>
       <c r="S3">
-        <v>0.0004181809928129664</v>
+        <v>0.001857696931167897</v>
       </c>
       <c r="T3">
-        <v>0.0004181809928129664</v>
+        <v>0.001857696931167898</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>45.8629981785385</v>
+        <v>45.91529066666667</v>
       </c>
       <c r="H4">
-        <v>45.8629981785385</v>
+        <v>137.745872</v>
       </c>
       <c r="I4">
-        <v>0.4931832967356902</v>
+        <v>0.4692032864180593</v>
       </c>
       <c r="J4">
-        <v>0.4931832967356902</v>
+        <v>0.4692032864180593</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.8591510565883</v>
+        <v>45.931316</v>
       </c>
       <c r="N4">
-        <v>37.8591510565883</v>
+        <v>137.793948</v>
       </c>
       <c r="O4">
-        <v>0.9970878470797707</v>
+        <v>0.9874217014725413</v>
       </c>
       <c r="P4">
-        <v>0.9970878470797707</v>
+        <v>0.9874217014725412</v>
       </c>
       <c r="Q4">
-        <v>1736.334175949323</v>
+        <v>2108.949724842518</v>
       </c>
       <c r="R4">
-        <v>1736.334175949323</v>
+        <v>18980.54752358266</v>
       </c>
       <c r="S4">
-        <v>0.491747071557893</v>
+        <v>0.4633015074114282</v>
       </c>
       <c r="T4">
-        <v>0.491747071557893</v>
+        <v>0.4633015074114282</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>45.8629981785385</v>
+        <v>45.91529066666667</v>
       </c>
       <c r="H5">
-        <v>45.8629981785385</v>
+        <v>137.745872</v>
       </c>
       <c r="I5">
-        <v>0.4931832967356902</v>
+        <v>0.4692032864180593</v>
       </c>
       <c r="J5">
-        <v>0.4931832967356902</v>
+        <v>0.4692032864180593</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.110573644669067</v>
+        <v>0.5850973333333334</v>
       </c>
       <c r="N5">
-        <v>0.110573644669067</v>
+        <v>1.755292</v>
       </c>
       <c r="O5">
-        <v>0.002912152920229241</v>
+        <v>0.01257829852745884</v>
       </c>
       <c r="P5">
-        <v>0.002912152920229241</v>
+        <v>0.01257829852745884</v>
       </c>
       <c r="Q5">
-        <v>5.071238864051782</v>
+        <v>26.86491412829156</v>
       </c>
       <c r="R5">
-        <v>5.071238864051782</v>
+        <v>241.784227154624</v>
       </c>
       <c r="S5">
-        <v>0.001436225177797125</v>
+        <v>0.005901779006631122</v>
       </c>
       <c r="T5">
-        <v>0.001436225177797125</v>
+        <v>0.005901779006631123</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>32.6620531093463</v>
+        <v>36.015061</v>
       </c>
       <c r="H6">
-        <v>32.6620531093463</v>
+        <v>108.045183</v>
       </c>
       <c r="I6">
-        <v>0.3512282159992213</v>
+        <v>0.3680339324088102</v>
       </c>
       <c r="J6">
-        <v>0.3512282159992213</v>
+        <v>0.3680339324088103</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>37.8591510565883</v>
+        <v>45.931316</v>
       </c>
       <c r="N6">
-        <v>37.8591510565883</v>
+        <v>137.793948</v>
       </c>
       <c r="O6">
-        <v>0.9970878470797707</v>
+        <v>0.9874217014725413</v>
       </c>
       <c r="P6">
-        <v>0.9970878470797707</v>
+        <v>0.9874217014725412</v>
       </c>
       <c r="Q6">
-        <v>1236.557602485051</v>
+        <v>1654.219147550276</v>
       </c>
       <c r="R6">
-        <v>1236.557602485051</v>
+        <v>14887.97232795249</v>
       </c>
       <c r="S6">
-        <v>0.3502053857243322</v>
+        <v>0.3634046917387376</v>
       </c>
       <c r="T6">
-        <v>0.3502053857243322</v>
+        <v>0.3634046917387376</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>32.6620531093463</v>
+        <v>36.015061</v>
       </c>
       <c r="H7">
-        <v>32.6620531093463</v>
+        <v>108.045183</v>
       </c>
       <c r="I7">
-        <v>0.3512282159992213</v>
+        <v>0.3680339324088102</v>
       </c>
       <c r="J7">
-        <v>0.3512282159992213</v>
+        <v>0.3680339324088103</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.110573644669067</v>
+        <v>0.5850973333333334</v>
       </c>
       <c r="N7">
-        <v>0.110573644669067</v>
+        <v>1.755292</v>
       </c>
       <c r="O7">
-        <v>0.002912152920229241</v>
+        <v>0.01257829852745884</v>
       </c>
       <c r="P7">
-        <v>0.002912152920229241</v>
+        <v>0.01257829852745884</v>
       </c>
       <c r="Q7">
-        <v>3.611562254675053</v>
+        <v>21.07231615093734</v>
       </c>
       <c r="R7">
-        <v>3.611562254675053</v>
+        <v>189.650845358436</v>
       </c>
       <c r="S7">
-        <v>0.001022830274889039</v>
+        <v>0.004629240670072623</v>
       </c>
       <c r="T7">
-        <v>0.001022830274889039</v>
+        <v>0.004629240670072624</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.11498826347291</v>
+        <v>1.474929666666667</v>
       </c>
       <c r="H8">
-        <v>1.11498826347291</v>
+        <v>4.424789000000001</v>
       </c>
       <c r="I8">
-        <v>0.01198991800449919</v>
+        <v>0.01507214343604052</v>
       </c>
       <c r="J8">
-        <v>0.01198991800449919</v>
+        <v>0.01507214343604052</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>37.8591510565883</v>
+        <v>45.931316</v>
       </c>
       <c r="N8">
-        <v>37.8591510565883</v>
+        <v>137.793948</v>
       </c>
       <c r="O8">
-        <v>0.9970878470797707</v>
+        <v>0.9874217014725413</v>
       </c>
       <c r="P8">
-        <v>0.9970878470797707</v>
+        <v>0.9874217014725412</v>
       </c>
       <c r="Q8">
-        <v>42.21250909314398</v>
+        <v>67.74546059744135</v>
       </c>
       <c r="R8">
-        <v>42.21250909314398</v>
+        <v>609.7091453769721</v>
       </c>
       <c r="S8">
-        <v>0.01195500152976907</v>
+        <v>0.01488256151645333</v>
       </c>
       <c r="T8">
-        <v>0.01195500152976907</v>
+        <v>0.01488256151645333</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.11498826347291</v>
+        <v>1.474929666666667</v>
       </c>
       <c r="H9">
-        <v>1.11498826347291</v>
+        <v>4.424789000000001</v>
       </c>
       <c r="I9">
-        <v>0.01198991800449919</v>
+        <v>0.01507214343604052</v>
       </c>
       <c r="J9">
-        <v>0.01198991800449919</v>
+        <v>0.01507214343604052</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.110573644669067</v>
+        <v>0.5850973333333334</v>
       </c>
       <c r="N9">
-        <v>0.110573644669067</v>
+        <v>1.755292</v>
       </c>
       <c r="O9">
-        <v>0.002912152920229241</v>
+        <v>0.01257829852745884</v>
       </c>
       <c r="P9">
-        <v>0.002912152920229241</v>
+        <v>0.01257829852745884</v>
       </c>
       <c r="Q9">
-        <v>0.1232883160554336</v>
+        <v>0.8629774148208891</v>
       </c>
       <c r="R9">
-        <v>0.1232883160554336</v>
+        <v>7.766796733388001</v>
       </c>
       <c r="S9">
-        <v>3.491647473011146E-05</v>
+        <v>0.0001895819195871969</v>
       </c>
       <c r="T9">
-        <v>3.491647473011146E-05</v>
+        <v>0.0001895819195871969</v>
       </c>
     </row>
   </sheetData>
